--- a/Code/Results/Cases/Case_6_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_19/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.869090591706026</v>
+        <v>3.869090591705799</v>
       </c>
       <c r="C2">
-        <v>1.104745911582114</v>
+        <v>1.104745911582341</v>
       </c>
       <c r="D2">
-        <v>0.3278482989887834</v>
+        <v>0.3278482989886555</v>
       </c>
       <c r="E2">
-        <v>1.498654169906246</v>
+        <v>1.49865416990626</v>
       </c>
       <c r="F2">
-        <v>6.635873520255586</v>
+        <v>6.635873520255501</v>
       </c>
       <c r="G2">
-        <v>0.0007437127231748271</v>
+        <v>0.0007437127231881835</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.292915343289337</v>
+        <v>3.292915343289394</v>
       </c>
       <c r="C3">
         <v>0.9385230912516533</v>
       </c>
       <c r="D3">
-        <v>0.2856247266612826</v>
+        <v>0.2856247266609131</v>
       </c>
       <c r="E3">
-        <v>1.266429032206716</v>
+        <v>1.266429032206858</v>
       </c>
       <c r="F3">
-        <v>5.740628530079675</v>
+        <v>5.740628530079647</v>
       </c>
       <c r="G3">
-        <v>0.0007578030578936477</v>
+        <v>0.0007578030578985436</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.951327824156863</v>
+        <v>2.95132782415709</v>
       </c>
       <c r="C4">
-        <v>0.8401863449115297</v>
+        <v>0.8401863449112454</v>
       </c>
       <c r="D4">
-        <v>0.2607697280726171</v>
+        <v>0.2607697280726313</v>
       </c>
       <c r="E4">
-        <v>1.130126361199359</v>
+        <v>1.130126361199302</v>
       </c>
       <c r="F4">
         <v>5.211660616999438</v>
       </c>
       <c r="G4">
-        <v>0.0007665192321234379</v>
+        <v>0.0007665192321175581</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.814651053569719</v>
+        <v>2.814651053569605</v>
       </c>
       <c r="C5">
-        <v>0.800873799841753</v>
+        <v>0.8008737998413835</v>
       </c>
       <c r="D5">
-        <v>0.2508628126613388</v>
+        <v>0.2508628126615662</v>
       </c>
       <c r="E5">
-        <v>1.075863128695502</v>
+        <v>1.075863128695559</v>
       </c>
       <c r="F5">
         <v>5.00042711176323</v>
       </c>
       <c r="G5">
-        <v>0.0007700955536178398</v>
+        <v>0.0007700955536774233</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.79209413057356</v>
+        <v>2.792094130573275</v>
       </c>
       <c r="C6">
-        <v>0.7943873037310141</v>
+        <v>0.7943873037302183</v>
       </c>
       <c r="D6">
-        <v>0.2492299167691243</v>
+        <v>0.2492299167689964</v>
       </c>
       <c r="E6">
-        <v>1.06692236783033</v>
+        <v>1.066922367830301</v>
       </c>
       <c r="F6">
-        <v>4.965589858726503</v>
+        <v>4.965589858726446</v>
       </c>
       <c r="G6">
-        <v>0.0007706910879994282</v>
+        <v>0.0007706910879488078</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.949474991802958</v>
+        <v>2.949474991802788</v>
       </c>
       <c r="C7">
-        <v>0.8396532948890183</v>
+        <v>0.8396532948884499</v>
       </c>
       <c r="D7">
-        <v>0.2606352797068183</v>
+        <v>0.2606352797065625</v>
       </c>
       <c r="E7">
-        <v>1.12938971838085</v>
+        <v>1.129389718380892</v>
       </c>
       <c r="F7">
         <v>5.2087954061559</v>
       </c>
       <c r="G7">
-        <v>0.0007665673550339016</v>
+        <v>0.0007665673550295595</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.667541012287586</v>
+        <v>3.667541012287643</v>
       </c>
       <c r="C8">
-        <v>1.046543339691681</v>
+        <v>1.046543339692022</v>
       </c>
       <c r="D8">
-        <v>0.3130363585851654</v>
+        <v>0.3130363585852649</v>
       </c>
       <c r="E8">
-        <v>1.417080811465283</v>
+        <v>1.417080811465297</v>
       </c>
       <c r="F8">
-        <v>6.322315476670241</v>
+        <v>6.322315476670383</v>
       </c>
       <c r="G8">
-        <v>0.0007485629913020318</v>
+        <v>0.0007485629913835881</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.202712292611238</v>
+        <v>5.202712292611352</v>
       </c>
       <c r="C9">
-        <v>1.491766529191182</v>
+        <v>1.49176652919158</v>
       </c>
       <c r="D9">
-        <v>0.4269393464068401</v>
+        <v>0.4269393464068685</v>
       </c>
       <c r="E9">
         <v>2.048269869642965</v>
       </c>
       <c r="F9">
-        <v>8.719465186564662</v>
+        <v>8.719465186564577</v>
       </c>
       <c r="G9">
-        <v>0.0007133136490371082</v>
+        <v>0.0007133136490426167</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.463671731928514</v>
+        <v>6.463671731928457</v>
       </c>
       <c r="C10">
-        <v>1.861408775469386</v>
+        <v>1.86140877546984</v>
       </c>
       <c r="D10">
-        <v>0.5222620816063852</v>
+        <v>0.5222620816064136</v>
       </c>
       <c r="E10">
-        <v>2.58535190610182</v>
+        <v>2.585351906101806</v>
       </c>
       <c r="F10">
         <v>10.70012950174964</v>
       </c>
       <c r="G10">
-        <v>0.0006866164721669267</v>
+        <v>0.0006866164722724575</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.084470990766306</v>
+        <v>7.08447099076642</v>
       </c>
       <c r="C11">
-        <v>2.044950820287738</v>
+        <v>2.044950820287681</v>
       </c>
       <c r="D11">
-        <v>0.5697417279158685</v>
+        <v>0.5697417279151011</v>
       </c>
       <c r="E11">
-        <v>2.856771504377107</v>
+        <v>2.856771504377079</v>
       </c>
       <c r="F11">
-        <v>11.67785285994654</v>
+        <v>11.67785285994677</v>
       </c>
       <c r="G11">
-        <v>0.0006740234843834092</v>
+        <v>0.0006740234844669336</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.328571152714403</v>
+        <v>7.328571152714005</v>
       </c>
       <c r="C12">
-        <v>2.117427780801165</v>
+        <v>2.117427780801791</v>
       </c>
       <c r="D12">
-        <v>0.5885073197272561</v>
+        <v>0.5885073197268866</v>
       </c>
       <c r="E12">
-        <v>2.964870090642847</v>
+        <v>2.964870090642719</v>
       </c>
       <c r="F12">
-        <v>12.06264309303941</v>
+        <v>12.06264309303918</v>
       </c>
       <c r="G12">
-        <v>0.0006691567473017781</v>
+        <v>0.0006691567473187108</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.275554054881013</v>
+        <v>7.275554054881354</v>
       </c>
       <c r="C13">
-        <v>2.101670983166855</v>
+        <v>2.101670983166912</v>
       </c>
       <c r="D13">
-        <v>0.5844269630629526</v>
+        <v>0.58442696306318</v>
       </c>
       <c r="E13">
-        <v>2.941323476956157</v>
+        <v>2.9413234769562</v>
       </c>
       <c r="F13">
         <v>11.97905445325642</v>
       </c>
       <c r="G13">
-        <v>0.0006702099212977999</v>
+        <v>0.000670209921296639</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.104356758335769</v>
+        <v>7.104356758335484</v>
       </c>
       <c r="C14">
-        <v>2.050848538597108</v>
+        <v>2.050848538597563</v>
       </c>
       <c r="D14">
-        <v>0.5712684574921525</v>
+        <v>0.5712684574924367</v>
       </c>
       <c r="E14">
-        <v>2.865547999806012</v>
+        <v>2.865547999805955</v>
       </c>
       <c r="F14">
-        <v>11.70919345391189</v>
+        <v>11.70919345391184</v>
       </c>
       <c r="G14">
-        <v>0.0006736252980051558</v>
+        <v>0.0006736252979270636</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>7.000748072547253</v>
       </c>
       <c r="C15">
-        <v>2.020133084844588</v>
+        <v>2.020133084845099</v>
       </c>
       <c r="D15">
-        <v>0.5633178486194765</v>
+        <v>0.5633178486193913</v>
       </c>
       <c r="E15">
-        <v>2.81987799452429</v>
+        <v>2.819877994524234</v>
       </c>
       <c r="F15">
-        <v>11.5459164336616</v>
+        <v>11.54591643366132</v>
       </c>
       <c r="G15">
-        <v>0.0006757033355527343</v>
+        <v>0.0006757033356953674</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.42422365465427</v>
+        <v>6.424223654654156</v>
       </c>
       <c r="C16">
-        <v>1.849782383922275</v>
+        <v>1.849782383922218</v>
       </c>
       <c r="D16">
-        <v>0.5192570740193219</v>
+        <v>0.5192570740188955</v>
       </c>
       <c r="E16">
-        <v>2.568268379124845</v>
+        <v>2.568268379124973</v>
       </c>
       <c r="F16">
-        <v>10.6380499806441</v>
+        <v>10.63804998064421</v>
       </c>
       <c r="G16">
-        <v>0.000687427829652048</v>
+        <v>0.0006874278298682925</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.083985265651449</v>
+        <v>6.083985265651791</v>
       </c>
       <c r="C17">
-        <v>1.749679255050523</v>
+        <v>1.749679255050467</v>
       </c>
       <c r="D17">
         <v>0.4933995490308121</v>
       </c>
       <c r="E17">
-        <v>2.421703187807381</v>
+        <v>2.421703187807367</v>
       </c>
       <c r="F17">
         <v>10.10289414216473</v>
       </c>
       <c r="G17">
-        <v>0.0006944852372362024</v>
+        <v>0.0006944852373501378</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.892560823670806</v>
+        <v>5.892560823670976</v>
       </c>
       <c r="C18">
-        <v>1.693493160133983</v>
+        <v>1.693493160134778</v>
       </c>
       <c r="D18">
-        <v>0.4788997599788729</v>
+        <v>0.478899759978674</v>
       </c>
       <c r="E18">
-        <v>2.339843746202718</v>
+        <v>2.339843746202632</v>
       </c>
       <c r="F18">
         <v>9.802041018714277</v>
       </c>
       <c r="G18">
-        <v>0.0006985048257353326</v>
+        <v>0.0006985048256222988</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.828425562120913</v>
+        <v>5.82842556212114</v>
       </c>
       <c r="C19">
-        <v>1.674689419313097</v>
+        <v>1.674689419313438</v>
       </c>
       <c r="D19">
-        <v>0.4740495448538127</v>
+        <v>0.4740495448540401</v>
       </c>
       <c r="E19">
-        <v>2.312511968272247</v>
+        <v>2.312511968272219</v>
       </c>
       <c r="F19">
-        <v>9.701283292199093</v>
+        <v>9.701283292199179</v>
       </c>
       <c r="G19">
-        <v>0.0006998598193207507</v>
+        <v>0.0006998598192032284</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.119748412428521</v>
+        <v>6.119748412428123</v>
       </c>
       <c r="C20">
-        <v>1.760186838715242</v>
+        <v>1.760186838715185</v>
       </c>
       <c r="D20">
-        <v>0.4961123540600454</v>
+        <v>0.4961123540601875</v>
       </c>
       <c r="E20">
-        <v>2.437044104630701</v>
+        <v>2.437044104630644</v>
       </c>
       <c r="F20">
-        <v>10.15912097007683</v>
+        <v>10.159120970077</v>
       </c>
       <c r="G20">
-        <v>0.0006937382734164936</v>
+        <v>0.000693738273414189</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.154374863364978</v>
+        <v>7.154374863364865</v>
       </c>
       <c r="C21">
-        <v>2.065688090290735</v>
+        <v>2.065688090290678</v>
       </c>
       <c r="D21">
-        <v>0.5751101848299811</v>
+        <v>0.5751101848302937</v>
       </c>
       <c r="E21">
-        <v>2.88764648423529</v>
+        <v>2.887646484235418</v>
       </c>
       <c r="F21">
-        <v>11.78802886964701</v>
+        <v>11.78802886964689</v>
       </c>
       <c r="G21">
-        <v>0.0006726251111948692</v>
+        <v>0.0006726251113109848</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.884855886699313</v>
+        <v>7.884855886699029</v>
       </c>
       <c r="C22">
-        <v>2.283282165834521</v>
+        <v>2.283282165834578</v>
       </c>
       <c r="D22">
-        <v>0.6314726412723246</v>
+        <v>0.6314726412729215</v>
       </c>
       <c r="E22">
         <v>3.214297175114183</v>
       </c>
       <c r="F22">
-        <v>12.94011826465419</v>
+        <v>12.94011826465396</v>
       </c>
       <c r="G22">
-        <v>0.0006582287120910494</v>
+        <v>0.0006582287121062101</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.489036152901633</v>
+        <v>7.489036152902031</v>
       </c>
       <c r="C23">
-        <v>2.165170641705345</v>
+        <v>2.165170641705231</v>
       </c>
       <c r="D23">
-        <v>0.6008726161218192</v>
+        <v>0.6008726161217339</v>
       </c>
       <c r="E23">
-        <v>3.036372557752145</v>
+        <v>3.036372557752216</v>
       </c>
       <c r="F23">
-        <v>12.31568343274768</v>
+        <v>12.3156834327479</v>
       </c>
       <c r="G23">
-        <v>0.0006659818291816169</v>
+        <v>0.0006659818290702748</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.103567020224261</v>
+        <v>6.103567020224318</v>
       </c>
       <c r="C24">
-        <v>1.755432162946363</v>
+        <v>1.755432162945567</v>
       </c>
       <c r="D24">
-        <v>0.4948847683156714</v>
+        <v>0.4948847683155577</v>
       </c>
       <c r="E24">
-        <v>2.430101090143225</v>
+        <v>2.430101090143182</v>
       </c>
       <c r="F24">
-        <v>10.13367983991679</v>
+        <v>10.13367983991662</v>
       </c>
       <c r="G24">
-        <v>0.0006940760913752295</v>
+        <v>0.0006940760912868276</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.768922536538696</v>
+        <v>4.768922536538582</v>
       </c>
       <c r="C25">
-        <v>1.365482018976422</v>
+        <v>1.36548201897682</v>
       </c>
       <c r="D25">
-        <v>0.3945066067681182</v>
+        <v>0.3945066067678482</v>
       </c>
       <c r="E25">
-        <v>1.867542477264138</v>
+        <v>1.867542477264152</v>
       </c>
       <c r="F25">
-        <v>8.040232194133864</v>
+        <v>8.040232194134006</v>
       </c>
       <c r="G25">
-        <v>0.0007229166984993143</v>
+        <v>0.0007229166983810148</v>
       </c>
       <c r="H25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_19/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,40 +415,46 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.869090591705799</v>
+        <v>3.559570922419823</v>
       </c>
       <c r="C2">
-        <v>1.104745911582341</v>
+        <v>1.322763020649631</v>
       </c>
       <c r="D2">
-        <v>0.3278482989886555</v>
+        <v>0.01812025240789694</v>
       </c>
       <c r="E2">
-        <v>1.49865416990626</v>
+        <v>1.433382523723949</v>
       </c>
       <c r="F2">
-        <v>6.635873520255501</v>
+        <v>0.7870434807789479</v>
       </c>
       <c r="G2">
-        <v>0.0007437127231881835</v>
+        <v>0.7110333397667432</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0157539186156006</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4252747715031262</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2552068450048992</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -462,40 +468,46 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.292915343289394</v>
+        <v>3.094976390801605</v>
       </c>
       <c r="C3">
-        <v>0.9385230912516533</v>
+        <v>1.152411130016333</v>
       </c>
       <c r="D3">
-        <v>0.2856247266609131</v>
+        <v>0.01716004229405854</v>
       </c>
       <c r="E3">
-        <v>1.266429032206858</v>
+        <v>1.227872290318089</v>
       </c>
       <c r="F3">
-        <v>5.740628530079647</v>
+        <v>0.7036598521921462</v>
       </c>
       <c r="G3">
-        <v>0.0007578030578985436</v>
+        <v>0.6314952471928166</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.01052940931996149</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.3964458630915431</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2499594840145143</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -509,40 +521,46 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.95132782415709</v>
+        <v>2.810397383663428</v>
       </c>
       <c r="C4">
-        <v>0.8401863449112454</v>
+        <v>1.049031273224699</v>
       </c>
       <c r="D4">
-        <v>0.2607697280726313</v>
+        <v>0.0165927334427316</v>
       </c>
       <c r="E4">
-        <v>1.130126361199302</v>
+        <v>1.10446850180027</v>
       </c>
       <c r="F4">
-        <v>5.211660616999438</v>
+        <v>0.6540834212456446</v>
       </c>
       <c r="G4">
-        <v>0.0007665192321175581</v>
+        <v>0.5843015354369214</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.007820485930202903</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3796729111232935</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2474710889212659</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -556,40 +574,46 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.814651053569605</v>
+        <v>2.69449533423699</v>
       </c>
       <c r="C5">
-        <v>0.8008737998413835</v>
+        <v>1.008455067574658</v>
       </c>
       <c r="D5">
-        <v>0.2508628126615662</v>
+        <v>0.01642172002073039</v>
       </c>
       <c r="E5">
-        <v>1.075863128695559</v>
+        <v>1.054760344638098</v>
       </c>
       <c r="F5">
-        <v>5.00042711176323</v>
+        <v>0.6329936309558377</v>
       </c>
       <c r="G5">
-        <v>0.0007700955536774233</v>
+        <v>0.5640452183546074</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.006877645738713856</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3723358141636055</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.2458695820557573</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -603,40 +627,46 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.792094130573275</v>
+        <v>2.675196263437613</v>
       </c>
       <c r="C6">
-        <v>0.7943873037302183</v>
+        <v>1.003313727383045</v>
       </c>
       <c r="D6">
-        <v>0.2492299167689964</v>
+        <v>0.01646128554909154</v>
       </c>
       <c r="E6">
-        <v>1.066922367830301</v>
+        <v>1.046526575455871</v>
       </c>
       <c r="F6">
-        <v>4.965589858726446</v>
+        <v>0.6279861951028423</v>
       </c>
       <c r="G6">
-        <v>0.0007706910879488078</v>
+        <v>0.5590062995076295</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.006793735659964995</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3702585280635162</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.2446922092085408</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -650,40 +680,46 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.949474991802788</v>
+        <v>2.808669164602918</v>
       </c>
       <c r="C7">
-        <v>0.8396532948884499</v>
+        <v>1.05281582574284</v>
       </c>
       <c r="D7">
-        <v>0.2606352797065625</v>
+        <v>0.01677590525476802</v>
       </c>
       <c r="E7">
-        <v>1.129389718380892</v>
+        <v>1.103760171294837</v>
       </c>
       <c r="F7">
-        <v>5.2087954061559</v>
+        <v>0.6496200408859352</v>
       </c>
       <c r="G7">
-        <v>0.0007665673550295595</v>
+        <v>0.5793829823974903</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.007971119807720584</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3771905170936662</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.2449294551226764</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -697,40 +733,46 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.667541012287643</v>
+        <v>3.398965382442043</v>
       </c>
       <c r="C8">
-        <v>1.046543339692022</v>
+        <v>1.269542480187511</v>
       </c>
       <c r="D8">
-        <v>0.3130363585852649</v>
+        <v>0.01803444382436226</v>
       </c>
       <c r="E8">
-        <v>1.417080811465297</v>
+        <v>1.361820312999839</v>
       </c>
       <c r="F8">
-        <v>6.322315476670383</v>
+        <v>0.7523643548725545</v>
       </c>
       <c r="G8">
-        <v>0.0007485629913835881</v>
+        <v>0.6770496423210659</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.01402166165024532</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.4119640928718411</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.249897644139299</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -744,40 +786,46 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.202712292611352</v>
+        <v>4.565207159732608</v>
       </c>
       <c r="C9">
-        <v>1.49176652919158</v>
+        <v>1.698555288222053</v>
       </c>
       <c r="D9">
-        <v>0.4269393464068685</v>
+        <v>0.02035984581094752</v>
       </c>
       <c r="E9">
-        <v>2.048269869642965</v>
+        <v>1.895573088683832</v>
       </c>
       <c r="F9">
-        <v>8.719465186564577</v>
+        <v>0.9765557790446024</v>
       </c>
       <c r="G9">
-        <v>0.0007133136490426167</v>
+        <v>0.8924798321767611</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.03024497693943218</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.4929276059901753</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.2708083691579191</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -791,40 +839,46 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.463671731928457</v>
+        <v>5.431640710337831</v>
       </c>
       <c r="C10">
-        <v>1.86140877546984</v>
+        <v>2.026699701013797</v>
       </c>
       <c r="D10">
-        <v>0.5222620816064136</v>
+        <v>0.0223214332310171</v>
       </c>
       <c r="E10">
-        <v>2.585351906101806</v>
+        <v>2.313425999797417</v>
       </c>
       <c r="F10">
-        <v>10.70012950174964</v>
+        <v>1.151988948629736</v>
       </c>
       <c r="G10">
-        <v>0.0006866164722724575</v>
+        <v>1.061735550352424</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.04597216024347794</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.5581447946724154</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.29026973540185</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -838,40 +892,46 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.08447099076642</v>
+        <v>5.828710696860298</v>
       </c>
       <c r="C11">
-        <v>2.044950820287681</v>
+        <v>2.186635384131534</v>
       </c>
       <c r="D11">
-        <v>0.5697417279151011</v>
+        <v>0.02358907277619338</v>
       </c>
       <c r="E11">
-        <v>2.856771504377079</v>
+        <v>2.511356488424198</v>
       </c>
       <c r="F11">
-        <v>11.67785285994677</v>
+        <v>1.228487369889478</v>
       </c>
       <c r="G11">
-        <v>0.0006740234844669336</v>
+        <v>1.134821551820778</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.05438770208917987</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.5858138146548697</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2964970713215962</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -885,40 +945,46 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.328571152714005</v>
+        <v>5.979848623111479</v>
       </c>
       <c r="C12">
-        <v>2.117427780801791</v>
+        <v>2.243819626842992</v>
       </c>
       <c r="D12">
-        <v>0.5885073197268866</v>
+        <v>0.02390154104429598</v>
       </c>
       <c r="E12">
-        <v>2.964870090642719</v>
+        <v>2.58775041377082</v>
       </c>
       <c r="F12">
-        <v>12.06264309303918</v>
+        <v>1.26178962720941</v>
       </c>
       <c r="G12">
-        <v>0.0006691567473187108</v>
+        <v>1.167281842275116</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.05763683939692044</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.5987123112562074</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.3012891776991253</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -932,40 +998,46 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.275554054881354</v>
+        <v>5.947310475330653</v>
       </c>
       <c r="C13">
-        <v>2.101670983166912</v>
+        <v>2.230683526781888</v>
       </c>
       <c r="D13">
-        <v>0.58442696306318</v>
+        <v>0.02379835149955767</v>
       </c>
       <c r="E13">
-        <v>2.9413234769562</v>
+        <v>2.571245110281581</v>
       </c>
       <c r="F13">
-        <v>11.97905445325642</v>
+        <v>1.255337100347958</v>
       </c>
       <c r="G13">
-        <v>0.000670209921296639</v>
+        <v>1.161092710237682</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.05690415461790455</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.596341485377053</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.3006850317385243</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -979,40 +1051,46 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.104356758335484</v>
+        <v>5.841149328432152</v>
       </c>
       <c r="C14">
-        <v>2.050848538597563</v>
+        <v>2.190991159680664</v>
       </c>
       <c r="D14">
-        <v>0.5712684574924367</v>
+        <v>0.02359954031611622</v>
       </c>
       <c r="E14">
-        <v>2.865547999805955</v>
+        <v>2.517617732819289</v>
       </c>
       <c r="F14">
-        <v>11.70919345391184</v>
+        <v>1.231531970223173</v>
       </c>
       <c r="G14">
-        <v>0.0006736252979270636</v>
+        <v>1.137831654563144</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.05464046849792048</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.5870474514299531</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2970726947121207</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1026,40 +1104,46 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.000748072547253</v>
+        <v>5.776125075151072</v>
       </c>
       <c r="C15">
-        <v>2.020133084845099</v>
+        <v>2.168315199718108</v>
       </c>
       <c r="D15">
-        <v>0.5633178486193913</v>
+        <v>0.02354866663868904</v>
       </c>
       <c r="E15">
-        <v>2.819877994524234</v>
+        <v>2.484932309792711</v>
       </c>
       <c r="F15">
-        <v>11.54591643366132</v>
+        <v>1.215563125008657</v>
       </c>
       <c r="G15">
-        <v>0.0006757033356953674</v>
+        <v>1.12203661729032</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.05333109522536006</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.580568323563142</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2940299796300962</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1073,40 +1157,46 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.424223654654156</v>
+        <v>5.405132280994849</v>
       </c>
       <c r="C16">
-        <v>1.849782383922218</v>
+        <v>2.029432525131313</v>
       </c>
       <c r="D16">
-        <v>0.5192570740188955</v>
+        <v>0.02282294718022371</v>
       </c>
       <c r="E16">
-        <v>2.568268379124973</v>
+        <v>2.300473667600357</v>
       </c>
       <c r="F16">
-        <v>10.63804998064421</v>
+        <v>1.134685969563392</v>
       </c>
       <c r="G16">
-        <v>0.0006874278298682925</v>
+        <v>1.043273918805568</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.04585086898000057</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.5493861179907356</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2826022045112424</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1120,40 +1210,46 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.083985265651791</v>
+        <v>5.17846635025694</v>
       </c>
       <c r="C17">
-        <v>1.749679255050467</v>
+        <v>1.945051936881384</v>
       </c>
       <c r="D17">
-        <v>0.4933995490308121</v>
+        <v>0.02238644645592203</v>
       </c>
       <c r="E17">
-        <v>2.421703187807367</v>
+        <v>2.189515356639859</v>
       </c>
       <c r="F17">
-        <v>10.10289414216473</v>
+        <v>1.086140057801558</v>
       </c>
       <c r="G17">
-        <v>0.0006944852373501378</v>
+        <v>0.9960848484995779</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.04155654236696815</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.5308203927576187</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2760307474189645</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1167,40 +1263,46 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.892560823670976</v>
+        <v>5.048583759827466</v>
       </c>
       <c r="C18">
-        <v>1.693493160134778</v>
+        <v>1.892828799951928</v>
       </c>
       <c r="D18">
-        <v>0.478899759978674</v>
+        <v>0.02196123477039791</v>
       </c>
       <c r="E18">
-        <v>2.339843746202632</v>
+        <v>2.126484971250974</v>
       </c>
       <c r="F18">
-        <v>9.802041018714277</v>
+        <v>1.062311876077501</v>
       </c>
       <c r="G18">
-        <v>0.0006985048256222988</v>
+        <v>0.9734709161204762</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.03902254091252111</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.5224418628185106</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2745930252111535</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1214,40 +1316,46 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.82842556212114</v>
+        <v>5.004514855737909</v>
       </c>
       <c r="C19">
-        <v>1.674689419313438</v>
+        <v>1.878250146643666</v>
       </c>
       <c r="D19">
-        <v>0.4740495448540401</v>
+        <v>0.02195426522393262</v>
       </c>
       <c r="E19">
-        <v>2.312511968272219</v>
+        <v>2.105221206079449</v>
       </c>
       <c r="F19">
-        <v>9.701283292199179</v>
+        <v>1.051426151246218</v>
       </c>
       <c r="G19">
-        <v>0.0006998598192032284</v>
+        <v>0.9626793925862387</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.0383047764823008</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.5180110671929583</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2724397322075731</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1261,40 +1369,46 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.119748412428123</v>
+        <v>5.202577534689794</v>
       </c>
       <c r="C20">
-        <v>1.760186838715185</v>
+        <v>1.953693566231152</v>
       </c>
       <c r="D20">
-        <v>0.4961123540601875</v>
+        <v>0.02241864663460547</v>
       </c>
       <c r="E20">
-        <v>2.437044104630644</v>
+        <v>2.201253792187757</v>
       </c>
       <c r="F20">
-        <v>10.159120970077</v>
+        <v>1.091562411417968</v>
       </c>
       <c r="G20">
-        <v>0.000693738273414189</v>
+        <v>1.001393226543073</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.04198997446944475</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.5329418699809878</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.276886318055233</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1308,40 +1422,46 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.154374863364865</v>
+        <v>5.872092091069192</v>
       </c>
       <c r="C21">
-        <v>2.065688090290678</v>
+        <v>2.20709231327919</v>
       </c>
       <c r="D21">
-        <v>0.5751101848302937</v>
+        <v>0.02385761356082128</v>
       </c>
       <c r="E21">
-        <v>2.887646484235418</v>
+        <v>2.533257239903079</v>
       </c>
       <c r="F21">
-        <v>11.78802886964689</v>
+        <v>1.234311598197522</v>
       </c>
       <c r="G21">
-        <v>0.0006726251113109848</v>
+        <v>1.139982478609852</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.05545245276405364</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.5874026352450414</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.2956677168937105</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1355,40 +1475,46 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.884855886699029</v>
+        <v>6.313431476763583</v>
       </c>
       <c r="C22">
-        <v>2.283282165834578</v>
+        <v>2.370065536351603</v>
       </c>
       <c r="D22">
-        <v>0.6314726412729215</v>
+        <v>0.02457572439544364</v>
       </c>
       <c r="E22">
-        <v>3.214297175114183</v>
+        <v>2.758538355958905</v>
       </c>
       <c r="F22">
-        <v>12.94011826465396</v>
+        <v>1.336809399239826</v>
       </c>
       <c r="G22">
-        <v>0.0006582287121062101</v>
+        <v>1.240584110122001</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.06511286364086732</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.6280296226873361</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.3126382603158433</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1402,40 +1528,46 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.489036152902031</v>
+        <v>6.077793306233843</v>
       </c>
       <c r="C23">
-        <v>2.165170641705231</v>
+        <v>2.277401592166598</v>
       </c>
       <c r="D23">
-        <v>0.6008726161217339</v>
+        <v>0.02394859959053264</v>
       </c>
       <c r="E23">
-        <v>3.036372557752216</v>
+        <v>2.637552521886064</v>
       </c>
       <c r="F23">
-        <v>12.3156834327479</v>
+        <v>1.286782698585753</v>
       </c>
       <c r="G23">
-        <v>0.0006659818290702748</v>
+        <v>1.192112060138157</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.0596876104866455</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.6090004209187896</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.3063967478822107</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1449,40 +1581,46 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.103567020224318</v>
+        <v>5.192072117481302</v>
       </c>
       <c r="C24">
-        <v>1.755432162945567</v>
+        <v>1.941392245765883</v>
       </c>
       <c r="D24">
-        <v>0.4948847683155577</v>
+        <v>0.0220300692109241</v>
       </c>
       <c r="E24">
-        <v>2.430101090143182</v>
+        <v>2.196064314732595</v>
       </c>
       <c r="F24">
-        <v>10.13367983991662</v>
+        <v>1.097022212852764</v>
       </c>
       <c r="G24">
-        <v>0.0006940760912868276</v>
+        <v>1.007786779737089</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.04148837377826009</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.5364515066278273</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.2811541889428995</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1496,40 +1634,46 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.768922536538582</v>
+        <v>4.248013901697732</v>
       </c>
       <c r="C25">
-        <v>1.36548201897682</v>
+        <v>1.588934612195771</v>
       </c>
       <c r="D25">
-        <v>0.3945066067678482</v>
+        <v>0.02005918487907721</v>
       </c>
       <c r="E25">
-        <v>1.867542477264152</v>
+        <v>1.747279953126437</v>
       </c>
       <c r="F25">
-        <v>8.040232194134006</v>
+        <v>0.9062846321032794</v>
       </c>
       <c r="G25">
-        <v>0.0007229166983810148</v>
+        <v>0.8236573949315158</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.025526115399364</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.4656119911405341</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.2597694914840503</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,6 +1685,12 @@
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_19/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.559570922419823</v>
+        <v>3.543622119926454</v>
       </c>
       <c r="C2">
-        <v>1.322763020649631</v>
+        <v>1.405574793003325</v>
       </c>
       <c r="D2">
-        <v>0.01812025240789694</v>
+        <v>0.02348119272106075</v>
       </c>
       <c r="E2">
-        <v>1.433382523723949</v>
+        <v>1.428002331442912</v>
       </c>
       <c r="F2">
-        <v>0.7870434807789479</v>
+        <v>0.7028921638266752</v>
       </c>
       <c r="G2">
-        <v>0.7110333397667432</v>
+        <v>0.6032257484022097</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0157539186156006</v>
+        <v>0.01336638498779319</v>
       </c>
       <c r="J2">
-        <v>0.4252747715031262</v>
+        <v>0.4318595085752719</v>
       </c>
       <c r="K2">
-        <v>0.2552068450048992</v>
+        <v>0.2106605849444136</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1385983202990673</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.04266167125100395</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -474,46 +480,52 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.094976390801605</v>
+        <v>3.085203145174205</v>
       </c>
       <c r="C3">
-        <v>1.152411130016333</v>
+        <v>1.217156534993194</v>
       </c>
       <c r="D3">
-        <v>0.01716004229405854</v>
+        <v>0.02138648286555167</v>
       </c>
       <c r="E3">
-        <v>1.227872290318089</v>
+        <v>1.224450217931917</v>
       </c>
       <c r="F3">
-        <v>0.7036598521921462</v>
+        <v>0.6364205806179299</v>
       </c>
       <c r="G3">
-        <v>0.6314952471928166</v>
+        <v>0.5401707749475264</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01052940931996149</v>
+        <v>0.009232744802909476</v>
       </c>
       <c r="J3">
-        <v>0.3964458630915431</v>
+        <v>0.4103137329968405</v>
       </c>
       <c r="K3">
-        <v>0.2499594840145143</v>
+        <v>0.2128488754600113</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1445116970054556</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.03786323289177673</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -527,46 +539,52 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.810397383663428</v>
+        <v>2.80396584460766</v>
       </c>
       <c r="C4">
-        <v>1.049031273224699</v>
+        <v>1.102878444735126</v>
       </c>
       <c r="D4">
-        <v>0.0165927334427316</v>
+        <v>0.02013232792618069</v>
       </c>
       <c r="E4">
-        <v>1.10446850180027</v>
+        <v>1.102036883304493</v>
       </c>
       <c r="F4">
-        <v>0.6540834212456446</v>
+        <v>0.5967241778496089</v>
       </c>
       <c r="G4">
-        <v>0.5843015354369214</v>
+        <v>0.5028882194201572</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.007820485930202903</v>
+        <v>0.007065311251090112</v>
       </c>
       <c r="J4">
-        <v>0.3796729111232935</v>
+        <v>0.3973732331331092</v>
       </c>
       <c r="K4">
-        <v>0.2474710889212659</v>
+        <v>0.2146788580607968</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1482098579360596</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.03576830290211674</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -580,46 +598,52 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.69449533423699</v>
+        <v>2.689332310362317</v>
       </c>
       <c r="C5">
-        <v>1.008455067574658</v>
+        <v>1.057850343937616</v>
       </c>
       <c r="D5">
-        <v>0.01642172002073039</v>
+        <v>0.01968740385076728</v>
       </c>
       <c r="E5">
-        <v>1.054760344638098</v>
+        <v>1.052689707627394</v>
       </c>
       <c r="F5">
-        <v>0.6329936309558377</v>
+        <v>0.5797097358402539</v>
       </c>
       <c r="G5">
-        <v>0.5640452183546074</v>
+        <v>0.4868280935506704</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.006877645738713856</v>
+        <v>0.006328281720248796</v>
       </c>
       <c r="J5">
-        <v>0.3723358141636055</v>
+        <v>0.3915326381592479</v>
       </c>
       <c r="K5">
-        <v>0.2458695820557573</v>
+        <v>0.2149284654614725</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1494334134678574</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.03495925809982481</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -633,46 +657,52 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.675196263437613</v>
+        <v>2.670243883054582</v>
       </c>
       <c r="C6">
-        <v>1.003313727383045</v>
+        <v>1.051897231596826</v>
       </c>
       <c r="D6">
-        <v>0.01646128554909154</v>
+        <v>0.01968590152817029</v>
       </c>
       <c r="E6">
-        <v>1.046526575455871</v>
+        <v>1.044514891349237</v>
       </c>
       <c r="F6">
-        <v>0.6279861951028423</v>
+        <v>0.5755741408504917</v>
       </c>
       <c r="G6">
-        <v>0.5590062995076295</v>
+        <v>0.4827351982527261</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.006793735659964995</v>
+        <v>0.006295465622038421</v>
       </c>
       <c r="J6">
-        <v>0.3702585280635162</v>
+        <v>0.3897967964610558</v>
       </c>
       <c r="K6">
-        <v>0.2446922092085408</v>
+        <v>0.2142367314154221</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1492729969908666</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.03464176201477898</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -686,46 +716,52 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.808669164602918</v>
+        <v>2.802186827351875</v>
       </c>
       <c r="C7">
-        <v>1.05281582574284</v>
+        <v>1.105124758536732</v>
       </c>
       <c r="D7">
-        <v>0.01677590525476802</v>
+        <v>0.0204491865749894</v>
       </c>
       <c r="E7">
-        <v>1.103760171294837</v>
+        <v>1.101308110364783</v>
       </c>
       <c r="F7">
-        <v>0.6496200408859352</v>
+        <v>0.5907020675170713</v>
       </c>
       <c r="G7">
-        <v>0.5793829823974903</v>
+        <v>0.501733321827686</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.007971119807720584</v>
+        <v>0.007256892694406325</v>
       </c>
       <c r="J7">
-        <v>0.3771905170936662</v>
+        <v>0.3882737828730143</v>
       </c>
       <c r="K7">
-        <v>0.2449294551226764</v>
+        <v>0.2118222607917595</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1468472730296675</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.03496853944165679</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -739,46 +775,52 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.398965382442043</v>
+        <v>3.384976983421552</v>
       </c>
       <c r="C8">
-        <v>1.269542480187511</v>
+        <v>1.34152281152268</v>
       </c>
       <c r="D8">
-        <v>0.01803444382436226</v>
+        <v>0.02345265955512943</v>
       </c>
       <c r="E8">
-        <v>1.361820312999839</v>
+        <v>1.357057215438473</v>
       </c>
       <c r="F8">
-        <v>0.7523643548725545</v>
+        <v>0.667718066909714</v>
       </c>
       <c r="G8">
-        <v>0.6770496423210659</v>
+        <v>0.586036033353821</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.01402166165024532</v>
+        <v>0.01205934409924581</v>
       </c>
       <c r="J8">
-        <v>0.4119640928718411</v>
+        <v>0.3988525175796553</v>
       </c>
       <c r="K8">
-        <v>0.249897644139299</v>
+        <v>0.2059350984322919</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1382336440356653</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.03913675931512195</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -792,46 +834,52 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.565207159732608</v>
+        <v>4.532400606726469</v>
       </c>
       <c r="C9">
-        <v>1.698555288222053</v>
+        <v>1.815488791992266</v>
       </c>
       <c r="D9">
-        <v>0.02035984581094752</v>
+        <v>0.02878730896523507</v>
       </c>
       <c r="E9">
-        <v>1.895573088683832</v>
+        <v>1.884159020989543</v>
       </c>
       <c r="F9">
-        <v>0.9765557790446024</v>
+        <v>0.8436788981601921</v>
       </c>
       <c r="G9">
-        <v>0.8924798321767611</v>
+        <v>0.7610959643351123</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.03024497693943218</v>
+        <v>0.02459042476038231</v>
       </c>
       <c r="J9">
-        <v>0.4929276059901753</v>
+        <v>0.4507011400319385</v>
       </c>
       <c r="K9">
-        <v>0.2708083691579191</v>
+        <v>0.2053966141868813</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.12493450218955</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.0565163558789834</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -845,46 +893,52 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.431640710337831</v>
+        <v>5.380500952608486</v>
       </c>
       <c r="C10">
-        <v>2.026699701013797</v>
+        <v>2.169269924503055</v>
       </c>
       <c r="D10">
-        <v>0.0223214332310171</v>
+        <v>0.03384143715480548</v>
       </c>
       <c r="E10">
-        <v>2.313425999797417</v>
+        <v>2.294559200410731</v>
       </c>
       <c r="F10">
-        <v>1.151988948629736</v>
+        <v>0.9675457347023269</v>
       </c>
       <c r="G10">
-        <v>1.061735550352424</v>
+        <v>0.9179164319734525</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.04597216024347794</v>
+        <v>0.03650696998839642</v>
       </c>
       <c r="J10">
-        <v>0.5581447946724154</v>
+        <v>0.451347702145398</v>
       </c>
       <c r="K10">
-        <v>0.29026973540185</v>
+        <v>0.2030267941550044</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1136214679230925</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.07216634625643792</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -898,46 +952,52 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.828710696860298</v>
+        <v>5.766976507205015</v>
       </c>
       <c r="C11">
-        <v>2.186635384131534</v>
+        <v>2.326397313800271</v>
       </c>
       <c r="D11">
-        <v>0.02358907277619338</v>
+        <v>0.03812116951370115</v>
       </c>
       <c r="E11">
-        <v>2.511356488424198</v>
+        <v>2.487756909318165</v>
       </c>
       <c r="F11">
-        <v>1.228487369889478</v>
+        <v>0.9983324232549222</v>
       </c>
       <c r="G11">
-        <v>1.134821551820778</v>
+        <v>1.019428474723483</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.05438770208917987</v>
+        <v>0.04278238784958699</v>
       </c>
       <c r="J11">
-        <v>0.5858138146548697</v>
+        <v>0.3862620514669004</v>
       </c>
       <c r="K11">
-        <v>0.2964970713215962</v>
+        <v>0.1920996990754311</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.104987600241472</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.07592208693086278</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -951,46 +1011,52 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.979848623111479</v>
+        <v>5.913722640208391</v>
       </c>
       <c r="C12">
-        <v>2.243819626842992</v>
+        <v>2.380824743432413</v>
       </c>
       <c r="D12">
-        <v>0.02390154104429598</v>
+        <v>0.03977496127803448</v>
       </c>
       <c r="E12">
-        <v>2.58775041377082</v>
+        <v>2.562119643314219</v>
       </c>
       <c r="F12">
-        <v>1.26178962720941</v>
+        <v>1.010690091645074</v>
       </c>
       <c r="G12">
-        <v>1.167281842275116</v>
+        <v>1.066585941525602</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.05763683939692044</v>
+        <v>0.04508687383952648</v>
       </c>
       <c r="J12">
-        <v>0.5987123112562074</v>
+        <v>0.3576026119878861</v>
       </c>
       <c r="K12">
-        <v>0.3012891776991253</v>
+        <v>0.1887829225980759</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.102048133758192</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.07773114911379508</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1004,46 +1070,52 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.947310475330653</v>
+        <v>5.882139144754376</v>
       </c>
       <c r="C13">
-        <v>2.230683526781888</v>
+        <v>2.368403640723614</v>
       </c>
       <c r="D13">
-        <v>0.02379835149955767</v>
+        <v>0.03936502923185259</v>
       </c>
       <c r="E13">
-        <v>2.571245110281581</v>
+        <v>2.546060417443528</v>
       </c>
       <c r="F13">
-        <v>1.255337100347958</v>
+        <v>1.008745191139468</v>
       </c>
       <c r="G13">
-        <v>1.161092710237682</v>
+        <v>1.056898803779276</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.05690415461790455</v>
+        <v>0.04454951613257219</v>
       </c>
       <c r="J13">
-        <v>0.596341485377053</v>
+        <v>0.3642678959446783</v>
       </c>
       <c r="K13">
-        <v>0.3006850317385243</v>
+        <v>0.1898360878291143</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1027944424059193</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.07748139972019175</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1057,46 +1129,52 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.841149328432152</v>
+        <v>5.77905801016874</v>
       </c>
       <c r="C14">
-        <v>2.190991159680664</v>
+        <v>2.330579395318864</v>
       </c>
       <c r="D14">
-        <v>0.02359954031611622</v>
+        <v>0.03823438586791639</v>
       </c>
       <c r="E14">
-        <v>2.517617732819289</v>
+        <v>2.49385496043179</v>
       </c>
       <c r="F14">
-        <v>1.231531970223173</v>
+        <v>0.9996572666179588</v>
       </c>
       <c r="G14">
-        <v>1.137831654563144</v>
+        <v>1.023500289238598</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.05464046849792048</v>
+        <v>0.04295405112340767</v>
       </c>
       <c r="J14">
-        <v>0.5870474514299531</v>
+        <v>0.3841276403935296</v>
       </c>
       <c r="K14">
-        <v>0.2970726947121207</v>
+        <v>0.1919730185419368</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1047950996964175</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.07613069731271693</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1110,46 +1188,52 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.776125075151072</v>
+        <v>5.715887495581626</v>
       </c>
       <c r="C15">
-        <v>2.168315199718108</v>
+        <v>2.308733267501054</v>
       </c>
       <c r="D15">
-        <v>0.02354866663868904</v>
+        <v>0.03765575387706122</v>
       </c>
       <c r="E15">
-        <v>2.484932309792711</v>
+        <v>2.462013520437225</v>
       </c>
       <c r="F15">
-        <v>1.215563125008657</v>
+        <v>0.9925687460188755</v>
       </c>
       <c r="G15">
-        <v>1.12203661729032</v>
+        <v>1.00235935001831</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.05333109522536006</v>
+        <v>0.04206704270660655</v>
       </c>
       <c r="J15">
-        <v>0.580568323563142</v>
+        <v>0.3950339917438441</v>
       </c>
       <c r="K15">
-        <v>0.2940299796300962</v>
+        <v>0.1925708282103642</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1057797040390653</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.07501664010896292</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1163,46 +1247,52 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.405132280994849</v>
+        <v>5.354743713168546</v>
       </c>
       <c r="C16">
-        <v>2.029432525131313</v>
+        <v>2.171398323107439</v>
       </c>
       <c r="D16">
-        <v>0.02282294718022371</v>
+        <v>0.03425975168511997</v>
       </c>
       <c r="E16">
-        <v>2.300473667600357</v>
+        <v>2.281918664878646</v>
       </c>
       <c r="F16">
-        <v>1.134685969563392</v>
+        <v>0.9548968207987087</v>
       </c>
       <c r="G16">
-        <v>1.043273918805568</v>
+        <v>0.9004021713499384</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.04585086898000057</v>
+        <v>0.03669967630773208</v>
       </c>
       <c r="J16">
-        <v>0.5493861179907356</v>
+        <v>0.4492424871986742</v>
       </c>
       <c r="K16">
-        <v>0.2826022045112424</v>
+        <v>0.1983158603883304</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1122557433730336</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.06974677567079013</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1216,46 +1306,52 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.17846635025694</v>
+        <v>5.133539059164264</v>
       </c>
       <c r="C17">
-        <v>1.945051936881384</v>
+        <v>2.084845488684323</v>
       </c>
       <c r="D17">
-        <v>0.02238644645592203</v>
+        <v>0.03254039219034155</v>
       </c>
       <c r="E17">
-        <v>2.189515356639859</v>
+        <v>2.173277072546099</v>
       </c>
       <c r="F17">
-        <v>1.086140057801558</v>
+        <v>0.927680047476855</v>
       </c>
       <c r="G17">
-        <v>0.9960848484995779</v>
+        <v>0.846380182068728</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.04155654236696815</v>
+        <v>0.0335700169933606</v>
       </c>
       <c r="J17">
-        <v>0.5308203927576187</v>
+        <v>0.4703432473431945</v>
       </c>
       <c r="K17">
-        <v>0.2760307474189645</v>
+        <v>0.2004545150468147</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1157545498607533</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.06609949143742355</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1269,46 +1365,52 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.048583759827466</v>
+        <v>5.006569359803166</v>
       </c>
       <c r="C18">
-        <v>1.892828799951928</v>
+        <v>2.03044100758683</v>
       </c>
       <c r="D18">
-        <v>0.02196123477039791</v>
+        <v>0.0314753240558403</v>
       </c>
       <c r="E18">
-        <v>2.126484971250974</v>
+        <v>2.111452883708623</v>
       </c>
       <c r="F18">
-        <v>1.062311876077501</v>
+        <v>0.9137026972540667</v>
       </c>
       <c r="G18">
-        <v>0.9734709161204762</v>
+        <v>0.8216396842591394</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.03902254091252111</v>
+        <v>0.03159909240382497</v>
       </c>
       <c r="J18">
-        <v>0.5224418628185106</v>
+        <v>0.4793716424300669</v>
       </c>
       <c r="K18">
-        <v>0.2745930252111535</v>
+        <v>0.2028107800793322</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.118183177083754</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.06449847692611144</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1322,46 +1424,52 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.004514855737909</v>
+        <v>4.963476529752995</v>
       </c>
       <c r="C19">
-        <v>1.878250146643666</v>
+        <v>2.014822211605633</v>
       </c>
       <c r="D19">
-        <v>0.02195426522393262</v>
+        <v>0.03128689491089176</v>
       </c>
       <c r="E19">
-        <v>2.105221206079449</v>
+        <v>2.090585349045185</v>
       </c>
       <c r="F19">
-        <v>1.051426151246218</v>
+        <v>0.9063029156292401</v>
       </c>
       <c r="G19">
-        <v>0.9626793925862387</v>
+        <v>0.811076013096951</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.0383047764823008</v>
+        <v>0.03111211433876182</v>
       </c>
       <c r="J19">
-        <v>0.5180110671929583</v>
+        <v>0.4802262494817171</v>
       </c>
       <c r="K19">
-        <v>0.2724397322075731</v>
+        <v>0.2022615577144435</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1185081831954164</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.06344199002532136</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1375,46 +1483,52 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.202577534689794</v>
+        <v>5.157087485722116</v>
       </c>
       <c r="C20">
-        <v>1.953693566231152</v>
+        <v>2.09384487053768</v>
       </c>
       <c r="D20">
-        <v>0.02241864663460547</v>
+        <v>0.03269492883315905</v>
       </c>
       <c r="E20">
-        <v>2.201253792187757</v>
+        <v>2.184780700581385</v>
       </c>
       <c r="F20">
-        <v>1.091562411417968</v>
+        <v>0.9309755897894973</v>
       </c>
       <c r="G20">
-        <v>1.001393226543073</v>
+        <v>0.8520984737290433</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.04198997446944475</v>
+        <v>0.03387917939761387</v>
       </c>
       <c r="J20">
-        <v>0.5329418699809878</v>
+        <v>0.4687290818599621</v>
       </c>
       <c r="K20">
-        <v>0.276886318055233</v>
+        <v>0.2004067683725452</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.115447514910116</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.0665527073180634</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1428,46 +1542,52 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.872092091069192</v>
+        <v>5.80876155460362</v>
       </c>
       <c r="C21">
-        <v>2.20709231327919</v>
+        <v>2.341003126883436</v>
       </c>
       <c r="D21">
-        <v>0.02385761356082128</v>
+        <v>0.03935001482165745</v>
       </c>
       <c r="E21">
-        <v>2.533257239903079</v>
+        <v>2.508901649203679</v>
       </c>
       <c r="F21">
-        <v>1.234311598197522</v>
+        <v>0.9911243533619256</v>
       </c>
       <c r="G21">
-        <v>1.139982478609852</v>
+        <v>1.041023106382269</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.05545245276405364</v>
+        <v>0.04356903824120106</v>
       </c>
       <c r="J21">
-        <v>0.5874026352450414</v>
+        <v>0.3559824459735808</v>
       </c>
       <c r="K21">
-        <v>0.2956677168937105</v>
+        <v>0.186895585763434</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1026881397078547</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.07465668005901094</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1481,46 +1601,52 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.313431476763583</v>
+        <v>6.236983517510168</v>
       </c>
       <c r="C22">
-        <v>2.370065536351603</v>
+        <v>2.497545042587092</v>
       </c>
       <c r="D22">
-        <v>0.02457572439544364</v>
+        <v>0.04385270338978131</v>
       </c>
       <c r="E22">
-        <v>2.758538355958905</v>
+        <v>2.727978389556597</v>
       </c>
       <c r="F22">
-        <v>1.336809399239826</v>
+        <v>1.0339667608078</v>
       </c>
       <c r="G22">
-        <v>1.240584110122001</v>
+        <v>1.181246326675023</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.06511286364086732</v>
+        <v>0.05032323243178105</v>
       </c>
       <c r="J22">
-        <v>0.6280296226873361</v>
+        <v>0.2876687648036267</v>
       </c>
       <c r="K22">
-        <v>0.3126382603158433</v>
+        <v>0.1803858429720826</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.09529520207480502</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.08133481801447573</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1534,46 +1660,52 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.077793306233843</v>
+        <v>6.008698631523657</v>
       </c>
       <c r="C23">
-        <v>2.277401592166598</v>
+        <v>2.412260600146169</v>
       </c>
       <c r="D23">
-        <v>0.02394859959053264</v>
+        <v>0.04072295040405294</v>
       </c>
       <c r="E23">
-        <v>2.637552521886064</v>
+        <v>2.610530739278957</v>
       </c>
       <c r="F23">
-        <v>1.286782698585753</v>
+        <v>1.020673636125565</v>
       </c>
       <c r="G23">
-        <v>1.192112060138157</v>
+        <v>1.101782417079562</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.0596876104866455</v>
+        <v>0.04645337474137801</v>
       </c>
       <c r="J23">
-        <v>0.6090004209187896</v>
+        <v>0.3390520752096222</v>
       </c>
       <c r="K23">
-        <v>0.3063967478822107</v>
+        <v>0.1877643055942819</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.10053755109276</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.07939167715630546</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1587,46 +1719,52 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.192072117481302</v>
+        <v>5.146773353039237</v>
       </c>
       <c r="C24">
-        <v>1.941392245765883</v>
+        <v>2.081719115218561</v>
       </c>
       <c r="D24">
-        <v>0.0220300692109241</v>
+        <v>0.03220398808182523</v>
       </c>
       <c r="E24">
-        <v>2.196064314732595</v>
+        <v>2.179678713276203</v>
       </c>
       <c r="F24">
-        <v>1.097022212852764</v>
+        <v>0.9361264876608431</v>
       </c>
       <c r="G24">
-        <v>1.007786779737089</v>
+        <v>0.8568395343631465</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.04148837377826009</v>
+        <v>0.033309243076034</v>
       </c>
       <c r="J24">
-        <v>0.5364515066278273</v>
+        <v>0.4731179862134525</v>
       </c>
       <c r="K24">
-        <v>0.2811541889428995</v>
+        <v>0.2038767942617561</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.116842530879822</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.06770750825237215</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1640,46 +1778,52 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.248013901697732</v>
+        <v>4.221073363201697</v>
       </c>
       <c r="C25">
-        <v>1.588934612195771</v>
+        <v>1.695133785685243</v>
       </c>
       <c r="D25">
-        <v>0.02005918487907721</v>
+        <v>0.02751230598732946</v>
       </c>
       <c r="E25">
-        <v>1.747279953126437</v>
+        <v>1.738058830542514</v>
       </c>
       <c r="F25">
-        <v>0.9062846321032794</v>
+        <v>0.7913050756646527</v>
       </c>
       <c r="G25">
-        <v>0.8236573949315158</v>
+        <v>0.700424921544041</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.025526115399364</v>
+        <v>0.02114983413488769</v>
       </c>
       <c r="J25">
-        <v>0.4656119911405341</v>
+        <v>0.4423657091902555</v>
       </c>
       <c r="K25">
-        <v>0.2597694914840503</v>
+        <v>0.2026937506290878</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1275516944095401</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.05014963351142754</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1691,6 +1835,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
